--- a/sample_chart.xlsx
+++ b/sample_chart.xlsx
@@ -588,6 +588,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
